--- a/biology/Zoologie/Echinanthera_undulata/Echinanthera_undulata.xlsx
+++ b/biology/Zoologie/Echinanthera_undulata/Echinanthera_undulata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Echinanthera undulata  est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Echinanthera undulata  est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Brésil[1]. Elle se rencontre dans les États du Minas Gerais, de Rio de Janeiro, de São Paulo, du Paraná et Santa Catarina.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Brésil. Elle se rencontre dans les États du Minas Gerais, de Rio de Janeiro, de São Paulo, du Paraná et Santa Catarina.
 Sa présence en Équateur, en Colombie, au Guyana, au Suriname et en Guyane est incertaine.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Wied-Neuwied, 1824 : Verzeichniss der Amphibien, welche im zweyten Bande der Naturgeschichte Brasiliens vom Prinz Max von Neuwied werden beschrieben werden. Isis von Oken, vol. 14, p. 661-673 (texte intégral).</t>
         </is>
